--- a/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
+++ b/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T16:42:03+01:00</t>
+    <t>2025-04-02T15:35:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses ValueSet erhält Codes um die verschiedenen Beatmungsmodis abzubilden</t>
+    <t>Dieses ValueSet enthält Codes um die verschiedenen Beatmungsmodis abzubilden</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
+++ b/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:35:32+02:00</t>
+    <t>2025-04-11T09:40:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Volume Control Ventilation</t>
+  </si>
+  <si>
+    <t>151796</t>
+  </si>
+  <si>
+    <t>CPAP pressure</t>
   </si>
   <si>
     <t>System URI</t>
@@ -403,7 +409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,18 +477,26 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
+++ b/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T09:40:45+02:00</t>
+    <t>2025-10-16T18:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses ValueSet enthält Codes um die verschiedenen Beatmungsmodis abzubilden</t>
+    <t>Dieses ValueSet enthält Codes um die verschiedenen Beatmungsmodi abzubilden</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -102,43 +102,43 @@
     <t>475172</t>
   </si>
   <si>
-    <t>Pressure Control</t>
+    <t>MDC_VENT_MODE_ISO_AC_PC5vLim_6ACAPH_3LC_3TRGC</t>
   </si>
   <si>
     <t>475147</t>
   </si>
   <si>
-    <t>PC: Pressure Control, AC: Assist Control — Assist-controlled, pressure-controlled ventilation with backup respiratory rate, allowing spontaneous breathing during the entire respiratory cycle. May include selectable adjuncts.</t>
+    <t>MDC_VENT_MODE_ISO_AC_PC_6ACAP</t>
   </si>
   <si>
     <t>475148</t>
   </si>
   <si>
-    <t>PC: Pressure Control, AC: Assist Control — Assist-controlled, pressure-controlled ventilation with backup respiratory rate, with tidal volume target and pressure regulation, allowing spontaneous breathing during the entire respiratory cycle. May include selectable adjuncts.</t>
+    <t>MDC_VENT_MODE_ISO_AC_vtPC_6ACAP</t>
   </si>
   <si>
     <t>475154</t>
   </si>
   <si>
-    <t>PC: Pressure Control, PSV: Pressure Support Ventilation — Pressure-controlled, triggered ventilation with expiratory synchronization and backup respiratory rate. May include selectable adjuncts.</t>
+    <t>MDC_VENT_MODE_ISO_CSV_PS_6ACAP_012_015</t>
   </si>
   <si>
     <t>475197</t>
   </si>
   <si>
-    <t>BiLevel Airway Pressure Ventilation</t>
+    <t>MDC_VENT_MODE_ISO_Bi9level_AV_0_SIMV_PC_8PS_8PS_6ACAP</t>
   </si>
   <si>
     <t>475201</t>
   </si>
   <si>
-    <t>Volume Control Ventilation</t>
+    <t>MDC_VENT_MODE_ISO_CMV_VC</t>
   </si>
   <si>
     <t>151796</t>
   </si>
   <si>
-    <t>CPAP pressure</t>
+    <t>MDC_PRESS_AWAY_CTS_POS</t>
   </si>
   <si>
     <t>System URI</t>

--- a/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
+++ b/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>T-CABS ValueSet Beatmungsmodus</t>
+    <t>T-CABS ValueSet Ventilation Mode</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T18:59:10+02:00</t>
+    <t>2025-11-19T11:55:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,76 +69,97 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>BIH-CEI (http://example.org/example-publisher)</t>
+    <t>BIH-CEI (https://www.bihealth.org/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This ValueSet contains codes to represent the different ventilation modes</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>475172</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_AC_PC5vLim_6ACAPH_3LC_3TRGC</t>
+  </si>
+  <si>
+    <t>475147</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_AC_PC_6ACAP</t>
+  </si>
+  <si>
+    <t>475148</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_AC_vtPC_6ACAP</t>
+  </si>
+  <si>
+    <t>475154</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_CSV_PS_6ACAP_012_015</t>
+  </si>
+  <si>
+    <t>475197</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_Bi9level_AV_0_SIMV_PC_8PS_8PS_6ACAP</t>
+  </si>
+  <si>
+    <t>475201</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_CMV_VC</t>
+  </si>
+  <si>
+    <t>475161</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_CSV_6ACAP</t>
+  </si>
+  <si>
+    <t>475140</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_AC_VC_6ACAPL</t>
+  </si>
+  <si>
+    <t>475136</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_SIMV_VC_8PS_6ACAPL</t>
+  </si>
+  <si>
+    <t>475190</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_HIFLOW_3NIV</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Dieses ValueSet enthält Codes um die verschiedenen Beatmungsmodi abzubilden</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>475172</t>
-  </si>
-  <si>
-    <t>MDC_VENT_MODE_ISO_AC_PC5vLim_6ACAPH_3LC_3TRGC</t>
-  </si>
-  <si>
-    <t>475147</t>
-  </si>
-  <si>
-    <t>MDC_VENT_MODE_ISO_AC_PC_6ACAP</t>
-  </si>
-  <si>
-    <t>475148</t>
-  </si>
-  <si>
-    <t>MDC_VENT_MODE_ISO_AC_vtPC_6ACAP</t>
-  </si>
-  <si>
-    <t>475154</t>
-  </si>
-  <si>
-    <t>MDC_VENT_MODE_ISO_CSV_PS_6ACAP_012_015</t>
-  </si>
-  <si>
-    <t>475197</t>
-  </si>
-  <si>
-    <t>MDC_VENT_MODE_ISO_Bi9level_AV_0_SIMV_PC_8PS_8PS_6ACAP</t>
-  </si>
-  <si>
-    <t>475201</t>
-  </si>
-  <si>
-    <t>MDC_VENT_MODE_ISO_CMV_VC</t>
-  </si>
-  <si>
-    <t>151796</t>
-  </si>
-  <si>
-    <t>MDC_PRESS_AWAY_CTS_POS</t>
   </si>
   <si>
     <t>System URI</t>
@@ -409,7 +430,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,18 +506,42 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
+++ b/output/ValueSet-t-cabs-valueset-Beatmungsmodus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T11:55:29+01:00</t>
+    <t>2025-11-20T17:13:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>MDC_VENT_MODE_ISO_HIFLOW_3NIV</t>
+  </si>
+  <si>
+    <t>475155</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_CSV_vtPS_6ACAP_012_015</t>
+  </si>
+  <si>
+    <t>475144</t>
+  </si>
+  <si>
+    <t>MDC_VENT_MODE_ISO_SIMV_PC_8PS_6ACAP</t>
   </si>
   <si>
     <t/>
@@ -430,7 +442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,15 +545,31 @@
         <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
